--- a/pet-simulator/Excel/GoodsTable_商品表.xlsx
+++ b/pet-simulator/Excel/GoodsTable_商品表.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24397\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CEDA5A-7945-4A4B-BD36-6EEE272DC70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C1F20B-9914-454A-8C2B-F85363263034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -69,9 +69,6 @@
     <t>Language</t>
   </si>
   <si>
-    <t>Task_shop_16</t>
-  </si>
-  <si>
     <t>10娃娃机币</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -98,6 +95,9 @@
   <si>
     <t>400娃娃机币</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuyDollCoin_Text_3</t>
   </si>
 </sst>
 </file>
@@ -115,12 +115,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -594,7 +596,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -642,7 +644,7 @@
     <row r="3" spans="1:5" ht="33" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -668,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>30</v>
@@ -677,7 +679,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -685,7 +687,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1">
         <v>100</v>
@@ -694,7 +696,7 @@
         <v>35</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -702,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <v>200</v>
@@ -711,7 +713,7 @@
         <v>70</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -719,7 +721,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1">
         <v>400</v>
@@ -728,7 +730,7 @@
         <v>150</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -736,7 +738,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1">
         <v>700</v>
@@ -745,7 +747,7 @@
         <v>270</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -753,7 +755,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1">
         <v>1000</v>
@@ -762,7 +764,7 @@
         <v>400</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
